--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-26T13:40:28+00:00</t>
+    <t>2022-08-05T14:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg5-インスタンス例を折りたためるようにする/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-05T14:56:31+00:00</t>
+    <t>2022-08-06T09:15:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
